--- a/Output/1968/North Dakota-Oregon/North Dakota-Oregon.xlsx
+++ b/Output/1968/North Dakota-Oregon/North Dakota-Oregon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunhao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/Cable/Output/1968/North Dakota-Oregon/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{1B91F8DF-9974-D04E-AE22-0677F20CF8E3}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" activeTab="3" xr2:uid="{1B91F8DF-9974-D04E-AE22-0677F20CF8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="North Dakota" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="537">
   <si>
     <t>Name</t>
   </si>
@@ -182,9 +182,6 @@
     <t>BELLAIRE</t>
   </si>
   <si>
-    <t>Julv 1, 1965</t>
-  </si>
-  <si>
     <t>BELLEFONTAINE</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>MASSILLON</t>
   </si>
   <si>
-    <t>Nov</t>
-  </si>
-  <si>
     <t>Maumee</t>
   </si>
   <si>
@@ -1641,6 +1635,10 @@
   </si>
   <si>
     <t>Independence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2016,7 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED9286-E672-0A4F-9A76-2A2123B269E7}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2579,6 +2577,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3346,8 +3345,8 @@
       <c r="D23" s="1">
         <v>11502</v>
       </c>
-      <c r="E23" t="s">
-        <v>51</v>
+      <c r="E23" s="2">
+        <v>23924</v>
       </c>
       <c r="F23" s="1">
         <v>1390</v>
@@ -3367,7 +3366,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3396,7 +3395,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3431,7 +3430,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3466,7 +3465,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3495,7 +3494,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3524,7 +3523,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3559,7 +3558,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3588,7 +3587,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3617,7 +3616,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3652,7 +3651,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3687,7 +3686,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3722,7 +3721,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3751,7 +3750,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3786,7 +3785,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3815,7 +3814,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3850,7 +3849,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3879,7 +3878,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3908,7 +3907,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3943,7 +3942,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3978,7 +3977,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4013,7 +4012,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4048,7 +4047,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4083,7 +4082,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4091,8 +4090,8 @@
       <c r="D46" s="1">
         <v>24957</v>
       </c>
-      <c r="E46" t="s">
-        <v>12</v>
+      <c r="E46" s="2">
+        <v>23631</v>
       </c>
       <c r="F46" s="1">
         <v>3078</v>
@@ -4112,7 +4111,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4147,7 +4146,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4176,7 +4175,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4211,7 +4210,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4246,7 +4245,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4281,7 +4280,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4316,7 +4315,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4351,7 +4350,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4386,7 +4385,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4421,7 +4420,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4456,7 +4455,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4485,7 +4484,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4520,7 +4519,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4555,7 +4554,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4584,7 +4583,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4619,7 +4618,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4654,7 +4653,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4689,7 +4688,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4724,7 +4723,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4753,7 +4752,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4785,7 +4784,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4814,7 +4813,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4849,7 +4848,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4878,7 +4877,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4913,7 +4912,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4948,7 +4947,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4983,7 +4982,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -5018,7 +5017,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -5053,7 +5052,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -5082,7 +5081,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -5117,7 +5116,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -5146,7 +5145,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -5181,7 +5180,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -5216,7 +5215,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -5251,7 +5250,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -5286,7 +5285,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -5321,7 +5320,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -5356,7 +5355,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -5385,7 +5384,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -5420,7 +5419,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -5449,7 +5448,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -5478,7 +5477,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -5507,7 +5506,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -5542,7 +5541,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -5577,7 +5576,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -5612,7 +5611,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -5647,7 +5646,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -5682,7 +5681,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -5717,7 +5716,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -5752,7 +5751,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -5787,7 +5786,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -5816,7 +5815,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -5851,7 +5850,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5886,7 +5885,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5921,7 +5920,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -5956,7 +5955,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -5991,7 +5990,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -6026,7 +6025,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -6061,7 +6060,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -6096,7 +6095,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -6131,7 +6130,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -6160,7 +6159,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -6189,7 +6188,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -6224,7 +6223,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -6253,7 +6252,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -6288,7 +6287,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -6323,7 +6322,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -6352,7 +6351,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -6384,7 +6383,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -6413,7 +6412,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -6448,7 +6447,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -6483,7 +6482,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -6512,7 +6511,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6541,7 +6540,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6570,7 +6569,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6599,7 +6598,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6634,7 +6633,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6663,7 +6662,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6692,7 +6691,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6721,7 +6720,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6729,8 +6728,8 @@
       <c r="D126" t="s">
         <v>17</v>
       </c>
-      <c r="E126" t="s">
-        <v>170</v>
+      <c r="E126" s="3">
+        <v>22221</v>
       </c>
       <c r="F126" s="1">
         <v>2400</v>
@@ -6744,13 +6743,13 @@
       <c r="I126">
         <v>12</v>
       </c>
-      <c r="J126" t="s">
-        <v>12</v>
+      <c r="J126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6785,7 +6784,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6820,7 +6819,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6849,7 +6848,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6884,7 +6883,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6919,7 +6918,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6954,7 +6953,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6989,7 +6988,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -7024,7 +7023,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -7059,7 +7058,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -7094,7 +7093,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -7109,7 +7108,7 @@
         <v>750</v>
       </c>
       <c r="G137" t="s">
-        <v>181</v>
+        <v>536</v>
       </c>
       <c r="H137" t="s">
         <v>12</v>
@@ -7123,7 +7122,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -7158,7 +7157,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -7193,7 +7192,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -7222,7 +7221,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -7251,7 +7250,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -7280,7 +7279,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7309,7 +7308,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -7344,7 +7343,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -7373,7 +7372,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7402,7 +7401,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7437,7 +7436,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7466,7 +7465,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -7501,7 +7500,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7536,7 +7535,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7571,7 +7570,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7606,7 +7605,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7641,7 +7640,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7676,7 +7675,7 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7705,7 +7704,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7740,7 +7739,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -7775,7 +7774,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7810,7 +7809,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7845,7 +7844,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7880,7 +7879,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7915,7 +7914,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -7950,7 +7949,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -7985,7 +7984,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -8020,7 +8019,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -8055,7 +8054,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -8090,7 +8089,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -8119,7 +8118,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -8154,7 +8153,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -8189,7 +8188,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -8218,7 +8217,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -8253,7 +8252,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -8288,7 +8287,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -8323,7 +8322,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -8358,7 +8357,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -8393,7 +8392,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -8428,7 +8427,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -8463,7 +8462,7 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -8498,7 +8497,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -8533,7 +8532,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -8562,7 +8561,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -8597,7 +8596,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -8632,7 +8631,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -8667,7 +8666,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -8702,7 +8701,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -8737,7 +8736,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -8766,7 +8765,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -8795,7 +8794,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -8810,7 +8809,7 @@
         <v>2045</v>
       </c>
       <c r="G188" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H188" s="1">
         <v>16000</v>
@@ -8824,7 +8823,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -8859,7 +8858,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -8894,7 +8893,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -8929,7 +8928,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -8964,7 +8963,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -8999,7 +8998,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -9028,7 +9027,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -9063,7 +9062,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -9098,7 +9097,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -9133,7 +9132,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -9168,7 +9167,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -9203,7 +9202,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -9238,7 +9237,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -9267,7 +9266,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -9302,7 +9301,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -9334,7 +9333,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -9369,7 +9368,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -9398,7 +9397,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -9433,7 +9432,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -9468,7 +9467,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -9503,7 +9502,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -9532,7 +9531,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -9567,7 +9566,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -9596,7 +9595,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -9631,7 +9630,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -9666,7 +9665,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -9701,7 +9700,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -9736,7 +9735,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -9771,7 +9770,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -9806,7 +9805,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -9835,7 +9834,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -9870,7 +9869,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -9905,7 +9904,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -9934,7 +9933,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -9969,7 +9968,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -10004,7 +10003,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -10039,7 +10038,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -10074,7 +10073,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -10109,7 +10108,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -10138,7 +10137,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -10167,7 +10166,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -10202,7 +10201,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -10231,7 +10230,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -10260,7 +10259,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -10289,7 +10288,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -10324,7 +10323,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -10359,7 +10358,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -10394,7 +10393,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -10429,7 +10428,7 @@
     </row>
     <row r="237" spans="1:12">
       <c r="A237" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -10464,7 +10463,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -10499,7 +10498,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -10534,7 +10533,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -10569,7 +10568,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -10604,7 +10603,7 @@
     </row>
     <row r="242" spans="1:12">
       <c r="A242" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -10633,7 +10632,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -10662,7 +10661,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -10697,7 +10696,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -10729,7 +10728,7 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -10764,7 +10763,7 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -10799,7 +10798,7 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -10834,7 +10833,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -10869,7 +10868,7 @@
     </row>
     <row r="250" spans="1:12">
       <c r="A250" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -10931,62 +10930,62 @@
     </row>
     <row r="254" spans="1:12">
       <c r="A254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="255" spans="1:12">
       <c r="A255" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="256" spans="1:12">
       <c r="A256" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -10997,40 +10996,40 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -11041,40 +11040,40 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -11085,7 +11084,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -11096,40 +11095,40 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B269">
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -11140,7 +11139,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -11151,29 +11150,29 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -11184,7 +11183,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -11195,62 +11194,62 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -11261,18 +11260,18 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -11283,73 +11282,73 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B288">
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -11360,7 +11359,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -11371,7 +11370,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -11382,79 +11381,79 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B299">
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B301">
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -11470,9 +11469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D83B2F-CD47-3345-B560-DBCCEC0BAB36}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -11519,7 +11516,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -11548,7 +11545,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11577,7 +11574,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11606,7 +11603,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11641,7 +11638,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11670,7 +11667,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11699,7 +11696,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11734,7 +11731,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11769,7 +11766,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11798,7 +11795,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11827,7 +11824,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11856,7 +11853,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11885,7 +11882,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -11914,7 +11911,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11943,7 +11940,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -11972,7 +11969,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12001,7 +11998,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12036,7 +12033,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12065,7 +12062,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12094,7 +12091,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12129,7 +12126,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12164,7 +12161,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12199,7 +12196,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12234,7 +12231,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -12269,7 +12266,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -12304,7 +12301,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -12333,7 +12330,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12362,7 +12359,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12391,7 +12388,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -12420,7 +12417,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -12455,7 +12452,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12490,7 +12487,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12519,7 +12516,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12542,13 +12539,13 @@
       <c r="I34">
         <v>5</v>
       </c>
-      <c r="J34" t="s">
-        <v>12</v>
+      <c r="J34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -12577,7 +12574,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -12606,7 +12603,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -12635,7 +12632,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -12664,7 +12661,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -12693,7 +12690,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -12722,7 +12719,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12751,7 +12748,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -12780,7 +12777,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -12809,7 +12806,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -12838,7 +12835,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -12867,7 +12864,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -12902,7 +12899,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12937,7 +12934,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12966,7 +12963,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -12995,7 +12992,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -13024,7 +13021,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13053,7 +13050,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -13082,7 +13079,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -13117,7 +13114,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -13149,7 +13146,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -13184,7 +13181,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -13213,7 +13210,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -13248,7 +13245,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -13277,7 +13274,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -13306,7 +13303,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -13335,7 +13332,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -13364,7 +13361,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -13393,7 +13390,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -13422,7 +13419,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -13457,7 +13454,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -13489,7 +13486,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -13524,7 +13521,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -13553,7 +13550,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -13588,7 +13585,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -13623,7 +13620,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -13658,7 +13655,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -13693,7 +13690,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -13722,7 +13719,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -13751,7 +13748,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -13780,7 +13777,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -13809,7 +13806,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -13838,35 +13835,35 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -13882,7 +13879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2CD07D-0DDA-B84C-89CF-7F5A29417683}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -13929,7 +13926,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -13964,7 +13961,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -13993,7 +13990,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -14022,7 +14019,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -14051,7 +14048,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -14080,7 +14077,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -14109,7 +14106,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -14138,7 +14135,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -14167,7 +14164,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -14202,7 +14199,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -14231,7 +14228,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -14260,7 +14257,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -14289,7 +14286,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -14318,7 +14315,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -14347,7 +14344,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -14376,7 +14373,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -14411,7 +14408,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -14446,7 +14443,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -14481,7 +14478,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -14516,7 +14513,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -14545,7 +14542,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -14574,7 +14571,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -14603,7 +14600,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -14632,7 +14629,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -14661,7 +14658,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -14690,7 +14687,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -14719,7 +14716,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -14748,7 +14745,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -14777,7 +14774,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -14806,7 +14803,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -14835,7 +14832,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -14864,7 +14861,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -14893,7 +14890,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -14922,7 +14919,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -14951,7 +14948,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -14986,7 +14983,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -15015,7 +15012,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -15044,7 +15041,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -15079,7 +15076,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -15108,7 +15105,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -15137,7 +15134,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -15166,7 +15163,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -15195,7 +15192,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -15224,7 +15221,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -15259,7 +15256,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -15288,7 +15285,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -15317,7 +15314,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -15346,7 +15343,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -15375,7 +15372,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -15404,7 +15401,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -15433,7 +15430,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -15462,7 +15459,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -15491,7 +15488,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -15526,7 +15523,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -15555,7 +15552,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -15584,7 +15581,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -15616,7 +15613,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -15645,7 +15642,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -15674,7 +15671,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -15703,7 +15700,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -15732,7 +15729,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -15767,7 +15764,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -15796,7 +15793,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -15825,7 +15822,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -15854,7 +15851,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -15889,7 +15886,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -15924,7 +15921,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -15953,7 +15950,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -15982,7 +15979,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -16011,7 +16008,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -16043,7 +16040,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -16078,7 +16075,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -16113,7 +16110,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -16148,7 +16145,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -16177,7 +16174,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -16206,7 +16203,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -16235,7 +16232,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -16264,7 +16261,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -16293,7 +16290,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -16322,7 +16319,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -16345,19 +16342,19 @@
       <c r="I81">
         <v>5</v>
       </c>
-      <c r="J81" t="s">
-        <v>12</v>
+      <c r="J81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="D82" t="s">
-        <v>12</v>
+      <c r="D82" s="1">
+        <v>11467</v>
       </c>
       <c r="E82">
         <v>1954</v>
@@ -16374,13 +16371,13 @@
       <c r="I82">
         <v>12</v>
       </c>
-      <c r="J82" t="s">
-        <v>12</v>
+      <c r="J82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -16415,7 +16412,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -16444,7 +16441,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -16473,7 +16470,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -16502,7 +16499,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -16537,7 +16534,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -16566,7 +16563,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -16595,7 +16592,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -16624,7 +16621,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -16653,7 +16650,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -16682,7 +16679,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -16711,7 +16708,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -16746,7 +16743,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -16775,7 +16772,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -16810,7 +16807,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -16845,7 +16842,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -16860,7 +16857,7 @@
         <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H98" t="s">
         <v>12</v>
@@ -16874,7 +16871,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -16903,431 +16900,431 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
